--- a/src/main/resources/registartion/data1.xlsx
+++ b/src/main/resources/registartion/data1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>Kore</t>
   </si>
@@ -28,6 +28,9 @@
     <t>k.bhavani6@gmail.com</t>
   </si>
   <si>
+    <t>7702101526</t>
+  </si>
+  <si>
     <t>Manvit</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
     <t>manvit@gmail.com</t>
   </si>
   <si>
+    <t>9989798765</t>
+  </si>
+  <si>
     <t>Subbu</t>
   </si>
   <si>
@@ -47,6 +53,9 @@
   </si>
   <si>
     <t>subbu123@gmail.com</t>
+  </si>
+  <si>
+    <t>6356587210</t>
   </si>
 </sst>
 </file>
@@ -55,9 +64,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -90,8 +99,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,7 +117,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,6 +134,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,6 +156,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -159,6 +184,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -168,15 +200,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,23 +214,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,187 +230,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,6 +421,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -430,41 +463,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,16 +499,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,145 +529,145 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -670,6 +679,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,18 +1003,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="6" max="6" width="12.8571428571429"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1015,33 +1027,42 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
